--- a/Code/Results/Cases/Case_0_123/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_123/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.05553668854832239</v>
+        <v>0.02240696193102565</v>
       </c>
       <c r="D2">
-        <v>0.1144120826497499</v>
+        <v>0.1747284524113866</v>
       </c>
       <c r="E2">
-        <v>0.07640755680227684</v>
+        <v>0.145479424469638</v>
       </c>
       <c r="F2">
-        <v>0.7455962622087782</v>
+        <v>1.37011226830522</v>
       </c>
       <c r="G2">
-        <v>0.0007990593997022889</v>
+        <v>0.002453775259263491</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4270775480654549</v>
+        <v>0.7068819490681832</v>
       </c>
       <c r="J2">
-        <v>0.07194119923472897</v>
+        <v>0.1593150103089762</v>
       </c>
       <c r="K2">
-        <v>2.623514143846961</v>
+        <v>0.9876128801214463</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6296651957928177</v>
+        <v>0.364592288795599</v>
       </c>
       <c r="N2">
-        <v>0.8419012668870778</v>
+        <v>1.349540083739768</v>
       </c>
       <c r="O2">
-        <v>1.740903182157155</v>
+        <v>3.293106829160308</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04897552991634768</v>
+        <v>0.0202474869338829</v>
       </c>
       <c r="D3">
-        <v>0.104469450025185</v>
+        <v>0.1728109719831679</v>
       </c>
       <c r="E3">
-        <v>0.07204598863272338</v>
+        <v>0.1452572531577623</v>
       </c>
       <c r="F3">
-        <v>0.7079565851043412</v>
+        <v>1.371808563168543</v>
       </c>
       <c r="G3">
-        <v>0.0008031686367614976</v>
+        <v>0.002456553525357978</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4016948395377753</v>
+        <v>0.7066723921334841</v>
       </c>
       <c r="J3">
-        <v>0.06994397032163491</v>
+        <v>0.1600267082083562</v>
       </c>
       <c r="K3">
-        <v>2.281296751161165</v>
+        <v>0.884620536743455</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5493119199218839</v>
+        <v>0.342257071509529</v>
       </c>
       <c r="N3">
-        <v>0.8560653753967884</v>
+        <v>1.357518245613896</v>
       </c>
       <c r="O3">
-        <v>1.665594340542782</v>
+        <v>3.303342260291288</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04494337249867186</v>
+        <v>0.01891199281244127</v>
       </c>
       <c r="D4">
-        <v>0.09844910626573977</v>
+        <v>0.1716943500043513</v>
       </c>
       <c r="E4">
-        <v>0.06946833512248318</v>
+        <v>0.1451838187859558</v>
       </c>
       <c r="F4">
-        <v>0.6863218168679595</v>
+        <v>1.373631225203425</v>
       </c>
       <c r="G4">
-        <v>0.0008057767046597203</v>
+        <v>0.002458351397402303</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3870114233501099</v>
+        <v>0.7069904834642031</v>
       </c>
       <c r="J4">
-        <v>0.06885368307745665</v>
+        <v>0.1605421419531545</v>
       </c>
       <c r="K4">
-        <v>2.071413310254457</v>
+        <v>0.8213934759581605</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5001840926154841</v>
+        <v>0.3286431795593145</v>
       </c>
       <c r="N4">
-        <v>0.8657529765369461</v>
+        <v>1.362905314122649</v>
       </c>
       <c r="O4">
-        <v>1.623292406448542</v>
+        <v>3.311626771070763</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.04329883410924396</v>
+        <v>0.01836538082999084</v>
       </c>
       <c r="D5">
-        <v>0.09601577615178059</v>
+        <v>0.1712546533403199</v>
       </c>
       <c r="E5">
-        <v>0.06844192621315415</v>
+        <v>0.1451697543853392</v>
       </c>
       <c r="F5">
-        <v>0.6778567186766722</v>
+        <v>1.374570382201377</v>
       </c>
       <c r="G5">
-        <v>0.0008068612589439694</v>
+        <v>0.002459107249245176</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3812414847772843</v>
+        <v>0.7072323928676667</v>
       </c>
       <c r="J5">
-        <v>0.06844200077562235</v>
+        <v>0.1607719141183779</v>
       </c>
       <c r="K5">
-        <v>1.985917826451328</v>
+        <v>0.7956322273468004</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4802088828169175</v>
+        <v>0.3231209190688702</v>
       </c>
       <c r="N5">
-        <v>0.8699425368963958</v>
+        <v>1.365223588344612</v>
       </c>
       <c r="O5">
-        <v>1.60699056316767</v>
+        <v>3.315505381435258</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.04302566096712468</v>
+        <v>0.018274472689221</v>
       </c>
       <c r="D6">
-        <v>0.09561289722061161</v>
+        <v>0.1711825702839533</v>
       </c>
       <c r="E6">
-        <v>0.06827290679740017</v>
+        <v>0.1451683776554979</v>
       </c>
       <c r="F6">
-        <v>0.6764717453786346</v>
+        <v>1.374738190643697</v>
       </c>
       <c r="G6">
-        <v>0.0008070426724510896</v>
+        <v>0.002459234161451829</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3802959264841661</v>
+        <v>0.7072793417990653</v>
       </c>
       <c r="J6">
-        <v>0.06837556644743259</v>
+        <v>0.1608112592473248</v>
       </c>
       <c r="K6">
-        <v>1.971722660809775</v>
+        <v>0.7913548984265617</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4768944973865459</v>
+        <v>0.3222055033299327</v>
       </c>
       <c r="N6">
-        <v>0.8706526059811708</v>
+        <v>1.365615970204139</v>
       </c>
       <c r="O6">
-        <v>1.60433869910284</v>
+        <v>3.316179769394665</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04492119999700606</v>
+        <v>0.01890463065381454</v>
       </c>
       <c r="D7">
-        <v>0.09841621009186952</v>
+        <v>0.171688357917148</v>
       </c>
       <c r="E7">
-        <v>0.06945439699909883</v>
+        <v>0.1451835648571489</v>
       </c>
       <c r="F7">
-        <v>0.6862062570562912</v>
+        <v>1.373643095777219</v>
       </c>
       <c r="G7">
-        <v>0.0008057912427745253</v>
+        <v>0.002458361497168664</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3869327595802403</v>
+        <v>0.7069932913793053</v>
       </c>
       <c r="J7">
-        <v>0.0688480009525918</v>
+        <v>0.1605451608571222</v>
       </c>
       <c r="K7">
-        <v>2.070260185528468</v>
+        <v>0.8210460312320151</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4999145287257818</v>
+        <v>0.3285686006526589</v>
       </c>
       <c r="N7">
-        <v>0.8658085088593381</v>
+        <v>1.362936080920676</v>
       </c>
       <c r="O7">
-        <v>1.623068831121486</v>
+        <v>3.31167704472773</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.05327483209684658</v>
+        <v>0.02166437130230037</v>
       </c>
       <c r="D8">
-        <v>0.1109655656213206</v>
+        <v>0.1740547426080568</v>
       </c>
       <c r="E8">
-        <v>0.07488209513246602</v>
+        <v>0.1453897623136555</v>
       </c>
       <c r="F8">
-        <v>0.7322994052631557</v>
+        <v>1.370535015200517</v>
       </c>
       <c r="G8">
-        <v>0.0008004588593929841</v>
+        <v>0.002454714151221416</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.418130379992526</v>
+        <v>0.7067169323462892</v>
       </c>
       <c r="J8">
-        <v>0.07122334540883202</v>
+        <v>0.1595441229283026</v>
       </c>
       <c r="K8">
-        <v>2.505451340147232</v>
+        <v>0.9520998434898615</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6019110150232692</v>
+        <v>0.3568705545830255</v>
       </c>
       <c r="N8">
-        <v>0.8465748629130303</v>
+        <v>1.352189681306513</v>
       </c>
       <c r="O8">
-        <v>1.714086183366902</v>
+        <v>3.29622074231753</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06965256890696736</v>
+        <v>0.02699971973422777</v>
       </c>
       <c r="D9">
-        <v>0.1363051783084757</v>
+        <v>0.1791743952949787</v>
       </c>
       <c r="E9">
-        <v>0.08638136121604134</v>
+        <v>0.1462929565641673</v>
       </c>
       <c r="F9">
-        <v>0.8353549796031814</v>
+        <v>1.370640340037937</v>
       </c>
       <c r="G9">
-        <v>0.0007906583414378643</v>
+        <v>0.002448288596374594</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4870881046718054</v>
+        <v>0.709723470521233</v>
       </c>
       <c r="J9">
-        <v>0.07703633007394473</v>
+        <v>0.1582035514335303</v>
       </c>
       <c r="K9">
-        <v>3.362079612028481</v>
+        <v>1.209122278879079</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.8039757603232047</v>
+        <v>0.4131513903177719</v>
       </c>
       <c r="N9">
-        <v>0.8170708863396783</v>
+        <v>1.334984303623102</v>
       </c>
       <c r="O9">
-        <v>1.926385160866289</v>
+        <v>3.281795909919254</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.0817204874654891</v>
+        <v>0.03087254093037473</v>
       </c>
       <c r="D10">
-        <v>0.1554579123882718</v>
+        <v>0.1832249871114158</v>
       </c>
       <c r="E10">
-        <v>0.09543937651043422</v>
+        <v>0.1472597285362198</v>
       </c>
       <c r="F10">
-        <v>0.9202058351781801</v>
+        <v>1.37450328087219</v>
       </c>
       <c r="G10">
-        <v>0.0007838313752771634</v>
+        <v>0.002444006462917782</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5434193447110047</v>
+        <v>0.714102200030446</v>
       </c>
       <c r="J10">
-        <v>0.08212309092554904</v>
+        <v>0.1575982731802554</v>
       </c>
       <c r="K10">
-        <v>3.995435214751353</v>
+        <v>1.397913051383796</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9542732134795173</v>
+        <v>0.454964031388279</v>
       </c>
       <c r="N10">
-        <v>0.800921019531792</v>
+        <v>1.324692546410816</v>
       </c>
       <c r="O10">
-        <v>2.106776353654681</v>
+        <v>3.280909662011055</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.08722708066291318</v>
+        <v>0.03262409864726123</v>
       </c>
       <c r="D11">
-        <v>0.1643089182010868</v>
+        <v>0.1851299125438288</v>
       </c>
       <c r="E11">
-        <v>0.09971336276968401</v>
+        <v>0.1477651989221727</v>
       </c>
       <c r="F11">
-        <v>0.9611274499144145</v>
+        <v>1.377084028811211</v>
       </c>
       <c r="G11">
-        <v>0.0007808004453439543</v>
+        <v>0.00244215273727566</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.5704972533956294</v>
+        <v>0.7165668679901103</v>
       </c>
       <c r="J11">
-        <v>0.08464099379221324</v>
+        <v>0.1574054013879618</v>
       </c>
       <c r="K11">
-        <v>4.284923796357475</v>
+        <v>1.483777910436743</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.023189594051857</v>
+        <v>0.4740837870636128</v>
       </c>
       <c r="N11">
-        <v>0.7948982224529857</v>
+        <v>1.320518830304991</v>
       </c>
       <c r="O11">
-        <v>2.195049202066997</v>
+        <v>3.282621608996436</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.08931548016894908</v>
+        <v>0.0332858855677074</v>
       </c>
       <c r="D12">
-        <v>0.1676823515898889</v>
+        <v>0.1858601550919872</v>
       </c>
       <c r="E12">
-        <v>0.1013557322945893</v>
+        <v>0.1479660326716967</v>
       </c>
       <c r="F12">
-        <v>0.9769875405604864</v>
+        <v>1.378179775541753</v>
       </c>
       <c r="G12">
-        <v>0.0007796629041659152</v>
+        <v>0.002441464260038358</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5809795765042765</v>
+        <v>0.7175682494330928</v>
       </c>
       <c r="J12">
-        <v>0.08562616327490247</v>
+        <v>0.1573442272295082</v>
       </c>
       <c r="K12">
-        <v>4.394786167304062</v>
+        <v>1.516288869654659</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.04937741866798</v>
+        <v>0.4813378695566328</v>
       </c>
       <c r="N12">
-        <v>0.792819118093405</v>
+        <v>1.319011271224014</v>
       </c>
       <c r="O12">
-        <v>2.229450460455496</v>
+        <v>3.283574458496446</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.08886555235446281</v>
+        <v>0.03314342453290919</v>
       </c>
       <c r="D13">
-        <v>0.1669548240213317</v>
+        <v>0.1857024900622548</v>
       </c>
       <c r="E13">
-        <v>0.1010009248545281</v>
+        <v>0.1479223607825055</v>
       </c>
       <c r="F13">
-        <v>0.9735550980083474</v>
+        <v>1.377938516809891</v>
       </c>
       <c r="G13">
-        <v>0.0007799074489624291</v>
+        <v>0.002441611937081363</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.5787115297990084</v>
+        <v>0.7173495554962344</v>
       </c>
       <c r="J13">
-        <v>0.08541254018898314</v>
+        <v>0.1573568745595821</v>
       </c>
       <c r="K13">
-        <v>4.371113989369576</v>
+        <v>1.509287267532102</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.043733162979763</v>
+        <v>0.4797749634445054</v>
       </c>
       <c r="N13">
-        <v>0.7932577370048506</v>
+        <v>1.319332709040779</v>
       </c>
       <c r="O13">
-        <v>2.221996850937359</v>
+        <v>3.283355692651753</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.08739882647998343</v>
+        <v>0.03267857424255283</v>
       </c>
       <c r="D14">
-        <v>0.1645860055860311</v>
+        <v>0.1851898122897353</v>
       </c>
       <c r="E14">
-        <v>0.09984799144446654</v>
+        <v>0.1477815329075121</v>
       </c>
       <c r="F14">
-        <v>0.9624247952101683</v>
+        <v>1.377171801835345</v>
       </c>
       <c r="G14">
-        <v>0.0007807066577501082</v>
+        <v>0.002442095825786646</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5713549432528922</v>
+        <v>0.7166478876456068</v>
       </c>
       <c r="J14">
-        <v>0.08472139488291219</v>
+        <v>0.1574001308007738</v>
       </c>
       <c r="K14">
-        <v>4.293957190124843</v>
+        <v>1.486452700808343</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.025342190906827</v>
+        <v>0.4746803095142411</v>
       </c>
       <c r="N14">
-        <v>0.7947230658188715</v>
+        <v>1.320393341428229</v>
       </c>
       <c r="O14">
-        <v>2.197859403945387</v>
+        <v>3.282693893998044</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.08650085084015302</v>
+        <v>0.03239364532399236</v>
       </c>
       <c r="D15">
-        <v>0.1631379257383827</v>
+        <v>0.1848769378746056</v>
       </c>
       <c r="E15">
-        <v>0.09914495615664265</v>
+        <v>0.1476964982861411</v>
       </c>
       <c r="F15">
-        <v>0.9556554892415932</v>
+        <v>1.376717597250575</v>
       </c>
       <c r="G15">
-        <v>0.0007811975089630496</v>
+        <v>0.002442393976460532</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5668791869439929</v>
+        <v>0.7162269623632724</v>
       </c>
       <c r="J15">
-        <v>0.08430224926203778</v>
+        <v>0.1574281713897747</v>
       </c>
       <c r="K15">
-        <v>4.246728896814545</v>
+        <v>1.472465270505722</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.014089380254148</v>
+        <v>0.4715614785691287</v>
       </c>
       <c r="N15">
-        <v>0.7956472228130167</v>
+        <v>1.321052504388959</v>
       </c>
       <c r="O15">
-        <v>2.183203900745696</v>
+        <v>3.282328200047147</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.08136102045246218</v>
+        <v>0.03075786521553425</v>
       </c>
       <c r="D16">
-        <v>0.1548824177298087</v>
+        <v>0.1831017433291748</v>
       </c>
       <c r="E16">
-        <v>0.09516330345157087</v>
+        <v>0.1472280146662186</v>
       </c>
       <c r="F16">
-        <v>0.917580761091159</v>
+        <v>1.374351198397378</v>
       </c>
       <c r="G16">
-        <v>0.0007840309117776445</v>
+        <v>0.002444129499409683</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5416806147974782</v>
+        <v>0.7139506484345617</v>
       </c>
       <c r="J16">
-        <v>0.08196284222486838</v>
+        <v>0.1576125375966697</v>
       </c>
       <c r="K16">
-        <v>3.976547578796385</v>
+        <v>1.392301088640352</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.949781366380293</v>
+        <v>0.4537164689676985</v>
       </c>
       <c r="N16">
-        <v>0.8013422050080905</v>
+        <v>1.324975521471671</v>
       </c>
       <c r="O16">
-        <v>2.101139304814126</v>
+        <v>3.280840379743154</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.07821273120380567</v>
+        <v>0.02975173689195287</v>
       </c>
       <c r="D17">
-        <v>0.1498546415982673</v>
+        <v>0.1820286242274136</v>
       </c>
       <c r="E17">
-        <v>0.09276125838918858</v>
+        <v>0.1469574221222096</v>
       </c>
       <c r="F17">
-        <v>0.8948386701249262</v>
+        <v>1.373110443304711</v>
       </c>
       <c r="G17">
-        <v>0.0007857878735789842</v>
+        <v>0.002445218278220633</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5266076679007838</v>
+        <v>0.7126753481889452</v>
       </c>
       <c r="J17">
-        <v>0.08058155372621911</v>
+        <v>0.1577467654044966</v>
       </c>
       <c r="K17">
-        <v>3.811180332247204</v>
+        <v>1.343117353947548</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.9104785850150989</v>
+        <v>0.4427942083028711</v>
       </c>
       <c r="N17">
-        <v>0.8051827094058766</v>
+        <v>1.327512202706018</v>
       </c>
       <c r="O17">
-        <v>2.052442157760652</v>
+        <v>3.280469680610878</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.07640345520876224</v>
+        <v>0.02917207898184415</v>
       </c>
       <c r="D18">
-        <v>0.1469756992885749</v>
+        <v>0.1814172617193748</v>
       </c>
       <c r="E18">
-        <v>0.09139399162529926</v>
+        <v>0.1468079679514389</v>
       </c>
       <c r="F18">
-        <v>0.881974710191443</v>
+        <v>1.372474299846829</v>
       </c>
       <c r="G18">
-        <v>0.0007868054958231203</v>
+        <v>0.002445853389009267</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5180735716088023</v>
+        <v>0.7119863229052115</v>
       </c>
       <c r="J18">
-        <v>0.07980611442854979</v>
+        <v>0.157831732206084</v>
       </c>
       <c r="K18">
-        <v>3.716191885550302</v>
+        <v>1.31482667405669</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8879232026413675</v>
+        <v>0.4365213519626963</v>
       </c>
       <c r="N18">
-        <v>0.8075155561400891</v>
+        <v>1.329019062168456</v>
       </c>
       <c r="O18">
-        <v>2.025012364871912</v>
+        <v>3.280455522804147</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.07579110734275218</v>
+        <v>0.02897565264794366</v>
       </c>
       <c r="D19">
-        <v>0.1460031002649202</v>
+        <v>0.1812112746749648</v>
       </c>
       <c r="E19">
-        <v>0.09093346516882406</v>
+        <v>0.1467584280230163</v>
       </c>
       <c r="F19">
-        <v>0.8776555320974495</v>
+        <v>1.372272222554159</v>
       </c>
       <c r="G19">
-        <v>0.0007871512742324407</v>
+        <v>0.002446069952437986</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.51520676391943</v>
+        <v>0.7117606700929997</v>
       </c>
       <c r="J19">
-        <v>0.07954676479182865</v>
+        <v>0.1578618336409221</v>
       </c>
       <c r="K19">
-        <v>3.684050916276533</v>
+        <v>1.30524773240893</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8802946591760588</v>
+        <v>0.43439908638085</v>
       </c>
       <c r="N19">
-        <v>0.8083263667226745</v>
+        <v>1.329537477097631</v>
       </c>
       <c r="O19">
-        <v>2.015822268665346</v>
+        <v>3.280484904819303</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.07854770765160879</v>
+        <v>0.02985894043392534</v>
       </c>
       <c r="D20">
-        <v>0.1503885086510053</v>
+        <v>0.1821422528514063</v>
       </c>
       <c r="E20">
-        <v>0.0930154645914314</v>
+        <v>0.1469855873489827</v>
       </c>
       <c r="F20">
-        <v>0.8972369676488228</v>
+        <v>1.373234501789398</v>
       </c>
       <c r="G20">
-        <v>0.0007856001146774415</v>
+        <v>0.00244510145801046</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5281980510817519</v>
+        <v>0.7128065005464634</v>
       </c>
       <c r="J20">
-        <v>0.08072660688947053</v>
+        <v>0.1577316732138101</v>
       </c>
       <c r="K20">
-        <v>3.828770580236665</v>
+        <v>1.348353214070414</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.9146571168399333</v>
+        <v>0.4439559378360372</v>
       </c>
       <c r="N20">
-        <v>0.8047609801398039</v>
+        <v>1.327237219584163</v>
       </c>
       <c r="O20">
-        <v>2.057565506388983</v>
+        <v>3.280488537283674</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.08782954708030388</v>
+        <v>0.03281515265534551</v>
       </c>
       <c r="D21">
-        <v>0.1652811792358051</v>
+        <v>0.1853401574913534</v>
       </c>
       <c r="E21">
-        <v>0.1001859719043594</v>
+        <v>0.147822641901616</v>
       </c>
       <c r="F21">
-        <v>0.9656839072573433</v>
+        <v>1.377393788807865</v>
       </c>
       <c r="G21">
-        <v>0.0007804716382184619</v>
+        <v>0.002441953330313873</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5735093858599356</v>
+        <v>0.7168521365773017</v>
       </c>
       <c r="J21">
-        <v>0.08492352108718393</v>
+        <v>0.1573871034351058</v>
       </c>
       <c r="K21">
-        <v>4.316613164856449</v>
+        <v>1.493159894495477</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.030741501387006</v>
+        <v>0.4761763601716922</v>
       </c>
       <c r="N21">
-        <v>0.7942870984867199</v>
+        <v>1.320079829445078</v>
       </c>
       <c r="O21">
-        <v>2.204922041582819</v>
+        <v>3.282880010935884</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.09391464311198661</v>
+        <v>0.03473851324596922</v>
       </c>
       <c r="D22">
-        <v>0.1751421333922991</v>
+        <v>0.1874819509652212</v>
       </c>
       <c r="E22">
-        <v>0.105012589936738</v>
+        <v>0.1484246203054518</v>
       </c>
       <c r="F22">
-        <v>1.012554916408831</v>
+        <v>1.380802704356157</v>
       </c>
       <c r="G22">
-        <v>0.0007771790975966311</v>
+        <v>0.002439974439937726</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6044650382238714</v>
+        <v>0.7198929674532906</v>
       </c>
       <c r="J22">
-        <v>0.08785241162146207</v>
+        <v>0.1572310504781598</v>
       </c>
       <c r="K22">
-        <v>4.636863523601107</v>
+        <v>1.587774143217189</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.107144354583468</v>
+        <v>0.4973147947639234</v>
       </c>
       <c r="N22">
-        <v>0.7886226692938436</v>
+        <v>1.31582713934668</v>
       </c>
       <c r="O22">
-        <v>2.306948661305938</v>
+        <v>3.286218453205947</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.0906649232886565</v>
+        <v>0.03371278239931996</v>
       </c>
       <c r="D23">
-        <v>0.1698668198846036</v>
+        <v>0.1863341204709457</v>
       </c>
       <c r="E23">
-        <v>0.1024230561214381</v>
+        <v>0.1480983155717404</v>
       </c>
       <c r="F23">
-        <v>0.9873329563182125</v>
+        <v>1.378920094540106</v>
       </c>
       <c r="G23">
-        <v>0.0007789311563350771</v>
+        <v>0.002441023440355829</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5878137573849713</v>
+        <v>0.7182336868149051</v>
       </c>
       <c r="J23">
-        <v>0.08627136295923776</v>
+        <v>0.1573080113326526</v>
       </c>
       <c r="K23">
-        <v>4.465795415992886</v>
+        <v>1.537279630096521</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.066313450943397</v>
+        <v>0.4860255738197665</v>
       </c>
       <c r="N23">
-        <v>0.7915339138746731</v>
+        <v>1.318058024038265</v>
       </c>
       <c r="O23">
-        <v>2.251943366477292</v>
+        <v>3.284274068199835</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.07839626262109789</v>
+        <v>0.02981047751642052</v>
       </c>
       <c r="D24">
-        <v>0.1501471113853796</v>
+        <v>0.1820908639405303</v>
       </c>
       <c r="E24">
-        <v>0.09290049542946477</v>
+        <v>0.1469728348069488</v>
       </c>
       <c r="F24">
-        <v>0.8961520430748067</v>
+        <v>1.373178174530693</v>
       </c>
       <c r="G24">
-        <v>0.0007856849769231117</v>
+        <v>0.002445154243959968</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5274786305902595</v>
+        <v>0.7127470690098008</v>
       </c>
       <c r="J24">
-        <v>0.08066097034194541</v>
+        <v>0.15773847210491</v>
       </c>
       <c r="K24">
-        <v>3.820817772527846</v>
+        <v>1.345986126105402</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.9127678779607749</v>
+        <v>0.4434306996482533</v>
       </c>
       <c r="N24">
-        <v>0.8049512557777732</v>
+        <v>1.327361388405713</v>
       </c>
       <c r="O24">
-        <v>2.0552474809285</v>
+        <v>3.280479392452492</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.06521862974052084</v>
+        <v>0.02556459974735503</v>
       </c>
       <c r="D25">
-        <v>0.1293629617040324</v>
+        <v>0.177738398333986</v>
       </c>
       <c r="E25">
-        <v>0.08317016733754201</v>
+        <v>0.145995308586123</v>
       </c>
       <c r="F25">
-        <v>0.8059792100163037</v>
+        <v>1.369947475099025</v>
       </c>
       <c r="G25">
-        <v>0.0007932420401075894</v>
+        <v>0.002449949518975775</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4675084653991206</v>
+        <v>0.7085295518969374</v>
       </c>
       <c r="J25">
-        <v>0.07532900221234939</v>
+        <v>0.1584995553702448</v>
       </c>
       <c r="K25">
-        <v>3.129793915629705</v>
+        <v>1.139594267160874</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7490339519698992</v>
+        <v>0.3978436784317836</v>
       </c>
       <c r="N25">
-        <v>0.8241217033134305</v>
+        <v>1.339225658423814</v>
       </c>
       <c r="O25">
-        <v>1.864955250999515</v>
+        <v>3.28399474362871</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_123/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_123/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02240696193102565</v>
+        <v>0.05553668854854976</v>
       </c>
       <c r="D2">
-        <v>0.1747284524113866</v>
+        <v>0.1144120826498138</v>
       </c>
       <c r="E2">
-        <v>0.145479424469638</v>
+        <v>0.07640755680227684</v>
       </c>
       <c r="F2">
-        <v>1.37011226830522</v>
+        <v>0.745596262208764</v>
       </c>
       <c r="G2">
-        <v>0.002453775259263491</v>
+        <v>0.0007990593996496312</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.7068819490681832</v>
+        <v>0.4270775480654407</v>
       </c>
       <c r="J2">
-        <v>0.1593150103089762</v>
+        <v>0.07194119923477871</v>
       </c>
       <c r="K2">
-        <v>0.9876128801214463</v>
+        <v>2.623514143846961</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.364592288795599</v>
+        <v>0.6296651957928177</v>
       </c>
       <c r="N2">
-        <v>1.349540083739768</v>
+        <v>0.8419012668870565</v>
       </c>
       <c r="O2">
-        <v>3.293106829160308</v>
+        <v>1.740903182157098</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0202474869338829</v>
+        <v>0.04897552991658216</v>
       </c>
       <c r="D3">
-        <v>0.1728109719831679</v>
+        <v>0.1044694500251779</v>
       </c>
       <c r="E3">
-        <v>0.1452572531577623</v>
+        <v>0.07204598863270562</v>
       </c>
       <c r="F3">
-        <v>1.371808563168543</v>
+        <v>0.7079565851043128</v>
       </c>
       <c r="G3">
-        <v>0.002456553525357978</v>
+        <v>0.0008031686367613557</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.7066723921334841</v>
+        <v>0.4016948395377753</v>
       </c>
       <c r="J3">
-        <v>0.1600267082083562</v>
+        <v>0.0699439703216207</v>
       </c>
       <c r="K3">
-        <v>0.884620536743455</v>
+        <v>2.281296751161165</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.342257071509529</v>
+        <v>0.5493119199218839</v>
       </c>
       <c r="N3">
-        <v>1.357518245613896</v>
+        <v>0.8560653753967884</v>
       </c>
       <c r="O3">
-        <v>3.303342260291288</v>
+        <v>1.665594340542754</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01891199281244127</v>
+        <v>0.04494337249890634</v>
       </c>
       <c r="D4">
-        <v>0.1716943500043513</v>
+        <v>0.09844910626573977</v>
       </c>
       <c r="E4">
-        <v>0.1451838187859558</v>
+        <v>0.06946833512248318</v>
       </c>
       <c r="F4">
-        <v>1.373631225203425</v>
+        <v>0.6863218168679524</v>
       </c>
       <c r="G4">
-        <v>0.002458351397402303</v>
+        <v>0.0008057767046170457</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.7069904834642031</v>
+        <v>0.3870114233501027</v>
       </c>
       <c r="J4">
-        <v>0.1605421419531545</v>
+        <v>0.06885368307748863</v>
       </c>
       <c r="K4">
-        <v>0.8213934759581605</v>
+        <v>2.071413310254457</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3286431795593145</v>
+        <v>0.500184092615477</v>
       </c>
       <c r="N4">
-        <v>1.362905314122649</v>
+        <v>0.8657529765368892</v>
       </c>
       <c r="O4">
-        <v>3.311626771070763</v>
+        <v>1.623292406448513</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01836538082999084</v>
+        <v>0.04329883410868973</v>
       </c>
       <c r="D5">
-        <v>0.1712546533403199</v>
+        <v>0.09601577615185164</v>
       </c>
       <c r="E5">
-        <v>0.1451697543853392</v>
+        <v>0.06844192621312573</v>
       </c>
       <c r="F5">
-        <v>1.374570382201377</v>
+        <v>0.6778567186766864</v>
       </c>
       <c r="G5">
-        <v>0.002459107249245176</v>
+        <v>0.0008068612590018757</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.7072323928676667</v>
+        <v>0.38124148477727</v>
       </c>
       <c r="J5">
-        <v>0.1607719141183779</v>
+        <v>0.06844200077553353</v>
       </c>
       <c r="K5">
-        <v>0.7956322273468004</v>
+        <v>1.985917826451356</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3231209190688702</v>
+        <v>0.4802088828168962</v>
       </c>
       <c r="N5">
-        <v>1.365223588344612</v>
+        <v>0.8699425368963318</v>
       </c>
       <c r="O5">
-        <v>3.315505381435258</v>
+        <v>1.606990563167727</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.018274472689221</v>
+        <v>0.04302566096680494</v>
       </c>
       <c r="D6">
-        <v>0.1711825702839533</v>
+        <v>0.09561289722066846</v>
       </c>
       <c r="E6">
-        <v>0.1451683776554979</v>
+        <v>0.06827290679740017</v>
       </c>
       <c r="F6">
-        <v>1.374738190643697</v>
+        <v>0.6764717453786133</v>
       </c>
       <c r="G6">
-        <v>0.002459234161451829</v>
+        <v>0.0008070426724938909</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.7072793417990653</v>
+        <v>0.380295926484159</v>
       </c>
       <c r="J6">
-        <v>0.1608112592473248</v>
+        <v>0.06837556644742548</v>
       </c>
       <c r="K6">
-        <v>0.7913548984265617</v>
+        <v>1.971722660809888</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3222055033299327</v>
+        <v>0.4768944973865459</v>
       </c>
       <c r="N6">
-        <v>1.365615970204139</v>
+        <v>0.8706526059812276</v>
       </c>
       <c r="O6">
-        <v>3.316179769394665</v>
+        <v>1.60433869910284</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01890463065381454</v>
+        <v>0.04492119999723343</v>
       </c>
       <c r="D7">
-        <v>0.171688357917148</v>
+        <v>0.09841621009182688</v>
       </c>
       <c r="E7">
-        <v>0.1451835648571489</v>
+        <v>0.06945439699910239</v>
       </c>
       <c r="F7">
-        <v>1.373643095777219</v>
+        <v>0.6862062570562841</v>
       </c>
       <c r="G7">
-        <v>0.002458361497168664</v>
+        <v>0.0008057912428332146</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.7069932913793053</v>
+        <v>0.3869327595802545</v>
       </c>
       <c r="J7">
-        <v>0.1605451608571222</v>
+        <v>0.06884800095253496</v>
       </c>
       <c r="K7">
-        <v>0.8210460312320151</v>
+        <v>2.070260185528383</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3285686006526589</v>
+        <v>0.4999145287258031</v>
       </c>
       <c r="N7">
-        <v>1.362936080920676</v>
+        <v>0.865808508859331</v>
       </c>
       <c r="O7">
-        <v>3.31167704472773</v>
+        <v>1.623068831121458</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02166437130230037</v>
+        <v>0.0532748320966121</v>
       </c>
       <c r="D8">
-        <v>0.1740547426080568</v>
+        <v>0.1109655656215409</v>
       </c>
       <c r="E8">
-        <v>0.1453897623136555</v>
+        <v>0.07488209513246602</v>
       </c>
       <c r="F8">
-        <v>1.370535015200517</v>
+        <v>0.7322994052631557</v>
       </c>
       <c r="G8">
-        <v>0.002454714151221416</v>
+        <v>0.0008004588593357422</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.7067169323462892</v>
+        <v>0.418130379992526</v>
       </c>
       <c r="J8">
-        <v>0.1595441229283026</v>
+        <v>0.07122334540882846</v>
       </c>
       <c r="K8">
-        <v>0.9520998434898615</v>
+        <v>2.505451340147289</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3568705545830255</v>
+        <v>0.6019110150232692</v>
       </c>
       <c r="N8">
-        <v>1.352189681306513</v>
+        <v>0.8465748629129664</v>
       </c>
       <c r="O8">
-        <v>3.29622074231753</v>
+        <v>1.714086183366874</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.02699971973422777</v>
+        <v>0.06965256890673999</v>
       </c>
       <c r="D9">
-        <v>0.1791743952949787</v>
+        <v>0.1363051783086036</v>
       </c>
       <c r="E9">
-        <v>0.1462929565641673</v>
+        <v>0.08638136121602713</v>
       </c>
       <c r="F9">
-        <v>1.370640340037937</v>
+        <v>0.8353549796031814</v>
       </c>
       <c r="G9">
-        <v>0.002448288596374594</v>
+        <v>0.0007906583414379753</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.709723470521233</v>
+        <v>0.4870881046717983</v>
       </c>
       <c r="J9">
-        <v>0.1582035514335303</v>
+        <v>0.07703633007388078</v>
       </c>
       <c r="K9">
-        <v>1.209122278879079</v>
+        <v>3.362079612028424</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4131513903177719</v>
+        <v>0.8039757603232118</v>
       </c>
       <c r="N9">
-        <v>1.334984303623102</v>
+        <v>0.8170708863396712</v>
       </c>
       <c r="O9">
-        <v>3.281795909919254</v>
+        <v>1.926385160866289</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.03087254093037473</v>
+        <v>0.08172048746573068</v>
       </c>
       <c r="D10">
-        <v>0.1832249871114158</v>
+        <v>0.1554579123882718</v>
       </c>
       <c r="E10">
-        <v>0.1472597285362198</v>
+        <v>0.09543937651044132</v>
       </c>
       <c r="F10">
-        <v>1.37450328087219</v>
+        <v>0.9202058351781801</v>
       </c>
       <c r="G10">
-        <v>0.002444006462917782</v>
+        <v>0.0007838313752761078</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.714102200030446</v>
+        <v>0.5434193447110118</v>
       </c>
       <c r="J10">
-        <v>0.1575982731802554</v>
+        <v>0.08212309092548509</v>
       </c>
       <c r="K10">
-        <v>1.397913051383796</v>
+        <v>3.995435214751353</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.454964031388279</v>
+        <v>0.9542732134795244</v>
       </c>
       <c r="N10">
-        <v>1.324692546410816</v>
+        <v>0.8009210195317138</v>
       </c>
       <c r="O10">
-        <v>3.280909662011055</v>
+        <v>2.106776353654652</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03262409864726123</v>
+        <v>0.08722708066292739</v>
       </c>
       <c r="D11">
-        <v>0.1851299125438288</v>
+        <v>0.1643089182013284</v>
       </c>
       <c r="E11">
-        <v>0.1477651989221727</v>
+        <v>0.09971336276969467</v>
       </c>
       <c r="F11">
-        <v>1.377084028811211</v>
+        <v>0.9611274499144145</v>
       </c>
       <c r="G11">
-        <v>0.00244215273727566</v>
+        <v>0.0007808004453725108</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7165668679901103</v>
+        <v>0.5704972533956152</v>
       </c>
       <c r="J11">
-        <v>0.1574054013879618</v>
+        <v>0.0846409937921706</v>
       </c>
       <c r="K11">
-        <v>1.483777910436743</v>
+        <v>4.284923796357646</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4740837870636128</v>
+        <v>1.023189594051871</v>
       </c>
       <c r="N11">
-        <v>1.320518830304991</v>
+        <v>0.7948982224530425</v>
       </c>
       <c r="O11">
-        <v>3.282621608996436</v>
+        <v>2.195049202067025</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.0332858855677074</v>
+        <v>0.08931548016872171</v>
       </c>
       <c r="D12">
-        <v>0.1858601550919872</v>
+        <v>0.1676823515898747</v>
       </c>
       <c r="E12">
-        <v>0.1479660326716967</v>
+        <v>0.1013557322945751</v>
       </c>
       <c r="F12">
-        <v>1.378179775541753</v>
+        <v>0.9769875405605291</v>
       </c>
       <c r="G12">
-        <v>0.002441464260038358</v>
+        <v>0.0007796629041361612</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7175682494330928</v>
+        <v>0.5809795765042836</v>
       </c>
       <c r="J12">
-        <v>0.1573442272295082</v>
+        <v>0.08562616327483852</v>
       </c>
       <c r="K12">
-        <v>1.516288869654659</v>
+        <v>4.394786167304176</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4813378695566328</v>
+        <v>1.049377418667973</v>
       </c>
       <c r="N12">
-        <v>1.319011271224014</v>
+        <v>0.7928191180934192</v>
       </c>
       <c r="O12">
-        <v>3.283574458496446</v>
+        <v>2.229450460455496</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.03314342453290919</v>
+        <v>0.08886555235412175</v>
       </c>
       <c r="D13">
-        <v>0.1857024900622548</v>
+        <v>0.1669548240212606</v>
       </c>
       <c r="E13">
-        <v>0.1479223607825055</v>
+        <v>0.1010009248545316</v>
       </c>
       <c r="F13">
-        <v>1.377938516809891</v>
+        <v>0.9735550980083474</v>
       </c>
       <c r="G13">
-        <v>0.002441611937081363</v>
+        <v>0.0007799074490211463</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.7173495554962344</v>
+        <v>0.5787115297990013</v>
       </c>
       <c r="J13">
-        <v>0.1573568745595821</v>
+        <v>0.08541254018894051</v>
       </c>
       <c r="K13">
-        <v>1.509287267532102</v>
+        <v>4.371113989369405</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4797749634445054</v>
+        <v>1.043733162979791</v>
       </c>
       <c r="N13">
-        <v>1.319332709040779</v>
+        <v>0.7932577370048506</v>
       </c>
       <c r="O13">
-        <v>3.283355692651753</v>
+        <v>2.221996850937273</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.03267857424255283</v>
+        <v>0.08739882647998343</v>
       </c>
       <c r="D14">
-        <v>0.1851898122897353</v>
+        <v>0.1645860055859885</v>
       </c>
       <c r="E14">
-        <v>0.1477815329075121</v>
+        <v>0.0998479914444701</v>
       </c>
       <c r="F14">
-        <v>1.377171801835345</v>
+        <v>0.9624247952101683</v>
       </c>
       <c r="G14">
-        <v>0.002442095825786646</v>
+        <v>0.0007807066578082386</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.7166478876456068</v>
+        <v>0.5713549432528851</v>
       </c>
       <c r="J14">
-        <v>0.1574001308007738</v>
+        <v>0.08472139488291219</v>
       </c>
       <c r="K14">
-        <v>1.486452700808343</v>
+        <v>4.293957190124843</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4746803095142411</v>
+        <v>1.025342190906827</v>
       </c>
       <c r="N14">
-        <v>1.320393341428229</v>
+        <v>0.7947230658188715</v>
       </c>
       <c r="O14">
-        <v>3.282693893998044</v>
+        <v>2.197859403945387</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.03239364532399236</v>
+        <v>0.08650085084026671</v>
       </c>
       <c r="D15">
-        <v>0.1848769378746056</v>
+        <v>0.1631379257384395</v>
       </c>
       <c r="E15">
-        <v>0.1476964982861411</v>
+        <v>0.09914495615661068</v>
       </c>
       <c r="F15">
-        <v>1.376717597250575</v>
+        <v>0.9556554892415789</v>
       </c>
       <c r="G15">
-        <v>0.002442393976460532</v>
+        <v>0.0007811975089347474</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7162269623632724</v>
+        <v>0.566879186944</v>
       </c>
       <c r="J15">
-        <v>0.1574281713897747</v>
+        <v>0.08430224926194541</v>
       </c>
       <c r="K15">
-        <v>1.472465270505722</v>
+        <v>4.246728896814659</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4715614785691287</v>
+        <v>1.014089380254163</v>
       </c>
       <c r="N15">
-        <v>1.321052504388959</v>
+        <v>0.7956472228130167</v>
       </c>
       <c r="O15">
-        <v>3.282328200047147</v>
+        <v>2.183203900745696</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.03075786521553425</v>
+        <v>0.08136102045244797</v>
       </c>
       <c r="D16">
-        <v>0.1831017433291748</v>
+        <v>0.1548824177296524</v>
       </c>
       <c r="E16">
-        <v>0.1472280146662186</v>
+        <v>0.09516330345155311</v>
       </c>
       <c r="F16">
-        <v>1.374351198397378</v>
+        <v>0.9175807610911448</v>
       </c>
       <c r="G16">
-        <v>0.002444129499409683</v>
+        <v>0.0007840309118059241</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7139506484345617</v>
+        <v>0.5416806147974853</v>
       </c>
       <c r="J16">
-        <v>0.1576125375966697</v>
+        <v>0.08196284222486838</v>
       </c>
       <c r="K16">
-        <v>1.392301088640352</v>
+        <v>3.976547578796442</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4537164689676985</v>
+        <v>0.949781366380293</v>
       </c>
       <c r="N16">
-        <v>1.324975521471671</v>
+        <v>0.8013422050080905</v>
       </c>
       <c r="O16">
-        <v>3.280840379743154</v>
+        <v>2.101139304814211</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02975173689195287</v>
+        <v>0.07821273120369199</v>
       </c>
       <c r="D17">
-        <v>0.1820286242274136</v>
+        <v>0.1498546415982673</v>
       </c>
       <c r="E17">
-        <v>0.1469574221222096</v>
+        <v>0.09276125838917082</v>
       </c>
       <c r="F17">
-        <v>1.373110443304711</v>
+        <v>0.8948386701249262</v>
       </c>
       <c r="G17">
-        <v>0.002445218278220633</v>
+        <v>0.0007857878735794326</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7126753481889452</v>
+        <v>0.526607667900798</v>
       </c>
       <c r="J17">
-        <v>0.1577467654044966</v>
+        <v>0.08058155372618359</v>
       </c>
       <c r="K17">
-        <v>1.343117353947548</v>
+        <v>3.811180332247147</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4427942083028711</v>
+        <v>0.9104785850150989</v>
       </c>
       <c r="N17">
-        <v>1.327512202706018</v>
+        <v>0.8051827094059263</v>
       </c>
       <c r="O17">
-        <v>3.280469680610878</v>
+        <v>2.052442157760652</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02917207898184415</v>
+        <v>0.0764034552091033</v>
       </c>
       <c r="D18">
-        <v>0.1814172617193748</v>
+        <v>0.1469756992886886</v>
       </c>
       <c r="E18">
-        <v>0.1468079679514389</v>
+        <v>0.09139399162530637</v>
       </c>
       <c r="F18">
-        <v>1.372474299846829</v>
+        <v>0.881974710191443</v>
       </c>
       <c r="G18">
-        <v>0.002445853389009267</v>
+        <v>0.0007868054958509952</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.7119863229052115</v>
+        <v>0.5180735716088023</v>
       </c>
       <c r="J18">
-        <v>0.157831732206084</v>
+        <v>0.07980611442849295</v>
       </c>
       <c r="K18">
-        <v>1.31482667405669</v>
+        <v>3.716191885550245</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4365213519626963</v>
+        <v>0.8879232026413746</v>
       </c>
       <c r="N18">
-        <v>1.329019062168456</v>
+        <v>0.8075155561401459</v>
       </c>
       <c r="O18">
-        <v>3.280455522804147</v>
+        <v>2.025012364871884</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.02897565264794366</v>
+        <v>0.0757911073426385</v>
       </c>
       <c r="D19">
-        <v>0.1812112746749648</v>
+        <v>0.1460031002651334</v>
       </c>
       <c r="E19">
-        <v>0.1467584280230163</v>
+        <v>0.09093346516887024</v>
       </c>
       <c r="F19">
-        <v>1.372272222554159</v>
+        <v>0.8776555320974353</v>
       </c>
       <c r="G19">
-        <v>0.002446069952437986</v>
+        <v>0.0007871512742602326</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.7117606700929997</v>
+        <v>0.5152067639194087</v>
       </c>
       <c r="J19">
-        <v>0.1578618336409221</v>
+        <v>0.0795467647917647</v>
       </c>
       <c r="K19">
-        <v>1.30524773240893</v>
+        <v>3.684050916276533</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.43439908638085</v>
+        <v>0.880294659176073</v>
       </c>
       <c r="N19">
-        <v>1.329537477097631</v>
+        <v>0.8083263667226817</v>
       </c>
       <c r="O19">
-        <v>3.280484904819303</v>
+        <v>2.015822268665289</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.02985894043392534</v>
+        <v>0.07854770765160879</v>
       </c>
       <c r="D20">
-        <v>0.1821422528514063</v>
+        <v>0.1503885086511616</v>
       </c>
       <c r="E20">
-        <v>0.1469855873489827</v>
+        <v>0.09301546459141719</v>
       </c>
       <c r="F20">
-        <v>1.373234501789398</v>
+        <v>0.8972369676488228</v>
       </c>
       <c r="G20">
-        <v>0.00244510145801046</v>
+        <v>0.000785600114649343</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7128065005464634</v>
+        <v>0.528198051081759</v>
       </c>
       <c r="J20">
-        <v>0.1577316732138101</v>
+        <v>0.08072660688945632</v>
       </c>
       <c r="K20">
-        <v>1.348353214070414</v>
+        <v>3.828770580236551</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4439559378360372</v>
+        <v>0.9146571168399475</v>
       </c>
       <c r="N20">
-        <v>1.327237219584163</v>
+        <v>0.8047609801398039</v>
       </c>
       <c r="O20">
-        <v>3.280488537283674</v>
+        <v>2.057565506388983</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.03281515265534551</v>
+        <v>0.08782954708044599</v>
       </c>
       <c r="D21">
-        <v>0.1853401574913534</v>
+        <v>0.1652811792359898</v>
       </c>
       <c r="E21">
-        <v>0.147822641901616</v>
+        <v>0.1001859719043985</v>
       </c>
       <c r="F21">
-        <v>1.377393788807865</v>
+        <v>0.9656839072573433</v>
       </c>
       <c r="G21">
-        <v>0.002441953330313873</v>
+        <v>0.0007804716382185002</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7168521365773017</v>
+        <v>0.5735093858599356</v>
       </c>
       <c r="J21">
-        <v>0.1573871034351058</v>
+        <v>0.08492352108715551</v>
       </c>
       <c r="K21">
-        <v>1.493159894495477</v>
+        <v>4.316613164856619</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4761763601716922</v>
+        <v>1.030741501387013</v>
       </c>
       <c r="N21">
-        <v>1.320079829445078</v>
+        <v>0.7942870984866772</v>
       </c>
       <c r="O21">
-        <v>3.282880010935884</v>
+        <v>2.20492204158279</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.03473851324596922</v>
+        <v>0.09391464311198661</v>
       </c>
       <c r="D22">
-        <v>0.1874819509652212</v>
+        <v>0.1751421333923702</v>
       </c>
       <c r="E22">
-        <v>0.1484246203054518</v>
+        <v>0.105012589936738</v>
       </c>
       <c r="F22">
-        <v>1.380802704356157</v>
+        <v>1.012554916408831</v>
       </c>
       <c r="G22">
-        <v>0.002439974439937726</v>
+        <v>0.0007771790975967892</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7198929674532906</v>
+        <v>0.6044650382238714</v>
       </c>
       <c r="J22">
-        <v>0.1572310504781598</v>
+        <v>0.08785241162140522</v>
       </c>
       <c r="K22">
-        <v>1.587774143217189</v>
+        <v>4.636863523601107</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4973147947639234</v>
+        <v>1.107144354583475</v>
       </c>
       <c r="N22">
-        <v>1.31582713934668</v>
+        <v>0.7886226692938294</v>
       </c>
       <c r="O22">
-        <v>3.286218453205947</v>
+        <v>2.306948661305967</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.03371278239931996</v>
+        <v>0.0906649232886565</v>
       </c>
       <c r="D23">
-        <v>0.1863341204709457</v>
+        <v>0.1698668198844899</v>
       </c>
       <c r="E23">
-        <v>0.1480983155717404</v>
+        <v>0.1024230561214239</v>
       </c>
       <c r="F23">
-        <v>1.378920094540106</v>
+        <v>0.9873329563182125</v>
       </c>
       <c r="G23">
-        <v>0.002441023440355829</v>
+        <v>0.0007789311563344541</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7182336868149051</v>
+        <v>0.5878137573849784</v>
       </c>
       <c r="J23">
-        <v>0.1573080113326526</v>
+        <v>0.08627136295918092</v>
       </c>
       <c r="K23">
-        <v>1.537279630096521</v>
+        <v>4.465795415992886</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4860255738197665</v>
+        <v>1.066313450943397</v>
       </c>
       <c r="N23">
-        <v>1.318058024038265</v>
+        <v>0.7915339138746731</v>
       </c>
       <c r="O23">
-        <v>3.284274068199835</v>
+        <v>2.25194336647732</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02981047751642052</v>
+        <v>0.0783962626209842</v>
       </c>
       <c r="D24">
-        <v>0.1820908639405303</v>
+        <v>0.1501471113852659</v>
       </c>
       <c r="E24">
-        <v>0.1469728348069488</v>
+        <v>0.09290049542946477</v>
       </c>
       <c r="F24">
-        <v>1.373178174530693</v>
+        <v>0.8961520430748067</v>
       </c>
       <c r="G24">
-        <v>0.002445154243959968</v>
+        <v>0.0007856849769511953</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.7127470690098008</v>
+        <v>0.5274786305902524</v>
       </c>
       <c r="J24">
-        <v>0.15773847210491</v>
+        <v>0.08066097034194541</v>
       </c>
       <c r="K24">
-        <v>1.345986126105402</v>
+        <v>3.820817772527846</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4434306996482533</v>
+        <v>0.9127678779607749</v>
       </c>
       <c r="N24">
-        <v>1.327361388405713</v>
+        <v>0.8049512557777803</v>
       </c>
       <c r="O24">
-        <v>3.280479392452492</v>
+        <v>2.055247480928529</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.02556459974735503</v>
+        <v>0.06521862974063453</v>
       </c>
       <c r="D25">
-        <v>0.177738398333986</v>
+        <v>0.1293629617042171</v>
       </c>
       <c r="E25">
-        <v>0.145995308586123</v>
+        <v>0.08317016733753135</v>
       </c>
       <c r="F25">
-        <v>1.369947475099025</v>
+        <v>0.8059792100163037</v>
       </c>
       <c r="G25">
-        <v>0.002449949518975775</v>
+        <v>0.0007932420401045026</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.7085295518969374</v>
+        <v>0.4675084653991064</v>
       </c>
       <c r="J25">
-        <v>0.1584995553702448</v>
+        <v>0.07532900221243821</v>
       </c>
       <c r="K25">
-        <v>1.139594267160874</v>
+        <v>3.129793915629648</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3978436784317836</v>
+        <v>0.7490339519698992</v>
       </c>
       <c r="N25">
-        <v>1.339225658423814</v>
+        <v>0.8241217033134305</v>
       </c>
       <c r="O25">
-        <v>3.28399474362871</v>
+        <v>1.864955250999515</v>
       </c>
     </row>
   </sheetData>
